--- a/files/3-курс-бакалавриат-ОФО-51.xlsx
+++ b/files/3-курс-бакалавриат-ОФО-51.xlsx
@@ -15,11 +15,74 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ИУПСиБК 3 курс " sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="Z_2A46F988_4068_4842_AD87_7C1438546466_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_2FB813A3_5440_4AD3_8C0B_7075CD7F3341_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$61</definedName>
+    <definedName name="Z_3E6A89DC_3605_4F28_8C76_EF9C2B30C530_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_3E6E804F_2134_4317_9DC8_8CA2B8BDE0B4_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_42C580F8_87E7_41B5_860C_C75268FCD7E7_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_51964DCB_30FF_401C_8A20_F2394B63461F_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_5D3B8552_E3E6_443E_BFD3_257201D9C8E6_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_6E0C6BCA_022E_43CA_915F_108A97C3A683_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_926B9A17_884F_46E2_955F_77DE1FD3A67E_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$61</definedName>
+    <definedName name="Z_9B7D8523_2FE1_49EF_9747_525647343229_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$61</definedName>
+    <definedName name="Z_9C39D361_572C_4BFB_9CEC_BB1F37661D9E_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
+    <definedName name="Z_B039F112_A67B_4E23_8E51_88C6795AD925_.wvu.PrintArea" localSheetId="0" hidden="1">'ИГУиП 3 курс'!$B$1:$P$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ИГУиП 3 курс'!$B$1:$P$61</definedName>
+    <definedName name="Z_2A46F988_4068_4842_AD87_7C1438546466_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$65</definedName>
+    <definedName name="Z_2FB813A3_5440_4AD3_8C0B_7075CD7F3341_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$60</definedName>
+    <definedName name="Z_3E6A89DC_3605_4F28_8C76_EF9C2B30C530_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$57</definedName>
+    <definedName name="Z_3E6E804F_2134_4317_9DC8_8CA2B8BDE0B4_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$57</definedName>
+    <definedName name="Z_42C580F8_87E7_41B5_860C_C75268FCD7E7_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$65</definedName>
+    <definedName name="Z_51964DCB_30FF_401C_8A20_F2394B63461F_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$57</definedName>
+    <definedName name="Z_5D3B8552_E3E6_443E_BFD3_257201D9C8E6_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$57</definedName>
+    <definedName name="Z_6E0C6BCA_022E_43CA_915F_108A97C3A683_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$57</definedName>
+    <definedName name="Z_926B9A17_884F_46E2_955F_77DE1FD3A67E_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$60</definedName>
+    <definedName name="Z_9B7D8523_2FE1_49EF_9747_525647343229_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$60</definedName>
+    <definedName name="Z_9C39D361_572C_4BFB_9CEC_BB1F37661D9E_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$57</definedName>
+    <definedName name="Z_B039F112_A67B_4E23_8E51_88C6795AD925_.wvu.PrintArea" localSheetId="1" hidden="1">'ИМ 3курс'!$B$1:$S$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ИМ 3курс'!$B$1:$S$60</definedName>
+    <definedName name="Z_2A46F988_4068_4842_AD87_7C1438546466_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_2FB813A3_5440_4AD3_8C0B_7075CD7F3341_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$R$60</definedName>
+    <definedName name="Z_3E6A89DC_3605_4F28_8C76_EF9C2B30C530_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_3E6E804F_2134_4317_9DC8_8CA2B8BDE0B4_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_42C580F8_87E7_41B5_860C_C75268FCD7E7_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_51964DCB_30FF_401C_8A20_F2394B63461F_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_5D3B8552_E3E6_443E_BFD3_257201D9C8E6_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_6E0C6BCA_022E_43CA_915F_108A97C3A683_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_926B9A17_884F_46E2_955F_77DE1FD3A67E_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$R$60</definedName>
+    <definedName name="Z_9B7D8523_2FE1_49EF_9747_525647343229_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$R$60</definedName>
+    <definedName name="Z_9C39D361_572C_4BFB_9CEC_BB1F37661D9E_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
+    <definedName name="Z_B039F112_A67B_4E23_8E51_88C6795AD925_.wvu.PrintArea" localSheetId="2" hidden="1">'ИУПСиБК, ИИС 3 курс '!$A$1:$S$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ИИС 3 курс '!$A$1:$R$60</definedName>
+    <definedName name="Z_2A46F988_4068_4842_AD87_7C1438546466_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_2FB813A3_5440_4AD3_8C0B_7075CD7F3341_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$B$1:$Q$60</definedName>
+    <definedName name="Z_3E6A89DC_3605_4F28_8C76_EF9C2B30C530_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_3E6E804F_2134_4317_9DC8_8CA2B8BDE0B4_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_42C580F8_87E7_41B5_860C_C75268FCD7E7_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_51964DCB_30FF_401C_8A20_F2394B63461F_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_5D3B8552_E3E6_443E_BFD3_257201D9C8E6_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$58</definedName>
+    <definedName name="Z_6E0C6BCA_022E_43CA_915F_108A97C3A683_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$56</definedName>
+    <definedName name="Z_926B9A17_884F_46E2_955F_77DE1FD3A67E_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$B$1:$Q$60</definedName>
+    <definedName name="Z_9B7D8523_2FE1_49EF_9747_525647343229_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$B$1:$Q$60</definedName>
+    <definedName name="Z_B039F112_A67B_4E23_8E51_88C6795AD925_.wvu.PrintArea" localSheetId="3" hidden="1">'ИЭиФ 3 курс'!$A$1:$R$56</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'ИЭиФ 3 курс'!$B$1:$Q$60</definedName>
+    <definedName name="Z_2FB813A3_5440_4AD3_8C0B_7075CD7F3341_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 3 курс'!$B$1:$O$62</definedName>
+    <definedName name="Z_926B9A17_884F_46E2_955F_77DE1FD3A67E_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 3 курс'!$B$1:$O$62</definedName>
+    <definedName name="Z_9B7D8523_2FE1_49EF_9747_525647343229_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 3 курс'!$B$1:$O$62</definedName>
+    <definedName name="Z_B039F112_A67B_4E23_8E51_88C6795AD925_.wvu.PrintArea" localSheetId="4" hidden="1">'ИОМ 3 курс'!$B$1:$O$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'ИОМ 3 курс'!$B$1:$O$62</definedName>
+    <definedName name="Z_2A46F988_4068_4842_AD87_7C1438546466_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_2FB813A3_5440_4AD3_8C0B_7075CD7F3341_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_3E6A89DC_3605_4F28_8C76_EF9C2B30C530_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_3E6E804F_2134_4317_9DC8_8CA2B8BDE0B4_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_42C580F8_87E7_41B5_860C_C75268FCD7E7_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_51964DCB_30FF_401C_8A20_F2394B63461F_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_5D3B8552_E3E6_443E_BFD3_257201D9C8E6_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_6E0C6BCA_022E_43CA_915F_108A97C3A683_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_926B9A17_884F_46E2_955F_77DE1FD3A67E_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_9B7D8523_2FE1_49EF_9747_525647343229_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_9C39D361_572C_4BFB_9CEC_BB1F37661D9E_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
+    <definedName name="Z_B039F112_A67B_4E23_8E51_88C6795AD925_.wvu.PrintArea" localSheetId="5" hidden="1">'3 курс'!$A$1:$Q$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3 курс'!$A$1:$Q$68</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
